--- a/Data/Unit1-6.xlsx
+++ b/Data/Unit1-6.xlsx
@@ -1158,9 +1158,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1481,10 +1482,10 @@
         <v>9</v>
       </c>
       <c r="C2" s="1">
-        <v>44033.355590277781</v>
-      </c>
-      <c r="D2">
-        <v>7</v>
+        <v>44055.459560185183</v>
+      </c>
+      <c r="D2" s="2">
+        <v>44069</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -1507,10 +1508,10 @@
         <v>15</v>
       </c>
       <c r="C3" s="1">
-        <v>44044.48704861111</v>
-      </c>
-      <c r="D3">
-        <v>10</v>
+        <v>44055.433379629627</v>
+      </c>
+      <c r="D3" s="2">
+        <v>44071</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
@@ -1530,10 +1531,10 @@
         <v>20</v>
       </c>
       <c r="C4" s="1">
-        <v>44032.348703703705</v>
-      </c>
-      <c r="D4">
-        <v>10</v>
+        <v>44055.433425925927</v>
+      </c>
+      <c r="D4" s="2">
+        <v>44082</v>
       </c>
       <c r="F4" t="s">
         <v>21</v>
@@ -1553,10 +1554,10 @@
         <v>24</v>
       </c>
       <c r="C5" s="1">
-        <v>44032.348807870374</v>
-      </c>
-      <c r="D5">
-        <v>10</v>
+        <v>44055.433553240742</v>
+      </c>
+      <c r="D5" s="2">
+        <v>44060</v>
       </c>
       <c r="F5" t="s">
         <v>25</v>
@@ -1576,10 +1577,10 @@
         <v>28</v>
       </c>
       <c r="C6" s="1">
-        <v>44032.352812500001</v>
-      </c>
-      <c r="D6">
-        <v>10</v>
+        <v>44055.433611111112</v>
+      </c>
+      <c r="D6" s="2">
+        <v>44061</v>
       </c>
       <c r="F6" t="s">
         <v>21</v>
@@ -1599,10 +1600,10 @@
         <v>31</v>
       </c>
       <c r="C7" s="1">
-        <v>44032.35297453704</v>
-      </c>
-      <c r="D7">
-        <v>10</v>
+        <v>44055.433900462966</v>
+      </c>
+      <c r="D7" s="2">
+        <v>44068</v>
       </c>
       <c r="F7" t="s">
         <v>32</v>
@@ -1622,10 +1623,10 @@
         <v>35</v>
       </c>
       <c r="C8" s="1">
-        <v>44032.356099537035</v>
-      </c>
-      <c r="D8">
-        <v>10</v>
+        <v>44055.433946759258</v>
+      </c>
+      <c r="D8" s="2">
+        <v>44058</v>
       </c>
       <c r="F8" t="s">
         <v>36</v>
@@ -1645,10 +1646,10 @@
         <v>39</v>
       </c>
       <c r="C9" s="1">
-        <v>44048.389108796298</v>
-      </c>
-      <c r="D9">
-        <v>7</v>
+        <v>44055.434004629627</v>
+      </c>
+      <c r="D9" s="2">
+        <v>44068</v>
       </c>
       <c r="F9" t="s">
         <v>40</v>
@@ -1668,10 +1669,10 @@
         <v>44</v>
       </c>
       <c r="C10" s="1">
-        <v>44032.354108796295</v>
-      </c>
-      <c r="D10">
-        <v>10</v>
+        <v>44055.434050925927</v>
+      </c>
+      <c r="D10" s="2">
+        <v>44061</v>
       </c>
       <c r="F10" t="s">
         <v>45</v>
@@ -1691,10 +1692,10 @@
         <v>48</v>
       </c>
       <c r="C11" s="1">
-        <v>44032.356076388889</v>
-      </c>
-      <c r="D11">
-        <v>10</v>
+        <v>44055.43409722222</v>
+      </c>
+      <c r="D11" s="2">
+        <v>44079</v>
       </c>
       <c r="G11" t="s">
         <v>41</v>
@@ -1708,10 +1709,10 @@
         <v>50</v>
       </c>
       <c r="C12" s="1">
-        <v>44044.486990740741</v>
-      </c>
-      <c r="D12">
-        <v>7</v>
+        <v>44055.434155092589</v>
+      </c>
+      <c r="D12" s="2">
+        <v>44057</v>
       </c>
       <c r="G12" t="s">
         <v>17</v>
@@ -1725,10 +1726,10 @@
         <v>52</v>
       </c>
       <c r="C13" s="1">
-        <v>44032.356041666666</v>
-      </c>
-      <c r="D13">
-        <v>10</v>
+        <v>44055.434212962966</v>
+      </c>
+      <c r="D13" s="2">
+        <v>44078</v>
       </c>
       <c r="G13" t="s">
         <v>12</v>
@@ -1742,10 +1743,10 @@
         <v>54</v>
       </c>
       <c r="C14" s="1">
-        <v>44032.356006944443</v>
-      </c>
-      <c r="D14">
-        <v>10</v>
+        <v>44055.434247685182</v>
+      </c>
+      <c r="D14" s="2">
+        <v>44057</v>
       </c>
       <c r="G14" t="s">
         <v>41</v>
@@ -1759,10 +1760,10 @@
         <v>56</v>
       </c>
       <c r="C15" s="1">
-        <v>44032.354872685188</v>
-      </c>
-      <c r="D15">
-        <v>10</v>
+        <v>44055.434305555558</v>
+      </c>
+      <c r="D15" s="2">
+        <v>44060</v>
       </c>
       <c r="G15" t="s">
         <v>17</v>
@@ -1776,10 +1777,10 @@
         <v>58</v>
       </c>
       <c r="C16" s="1">
-        <v>44032.355937499997</v>
-      </c>
-      <c r="D16">
-        <v>10</v>
+        <v>44055.434363425928</v>
+      </c>
+      <c r="D16" s="2">
+        <v>44062</v>
       </c>
       <c r="G16" t="s">
         <v>17</v>
@@ -1793,10 +1794,10 @@
         <v>60</v>
       </c>
       <c r="C17" s="1">
-        <v>44032.355891203704</v>
-      </c>
-      <c r="D17">
-        <v>10</v>
+        <v>44055.434421296297</v>
+      </c>
+      <c r="D17" s="2">
+        <v>44077</v>
       </c>
       <c r="G17" t="s">
         <v>17</v>
@@ -1810,10 +1811,10 @@
         <v>62</v>
       </c>
       <c r="C18" s="1">
-        <v>44032.355856481481</v>
-      </c>
-      <c r="D18">
-        <v>10</v>
+        <v>44055.43445601852</v>
+      </c>
+      <c r="D18" s="2">
+        <v>44079</v>
       </c>
       <c r="G18" t="s">
         <v>41</v>
@@ -1827,10 +1828,10 @@
         <v>64</v>
       </c>
       <c r="C19" s="1">
-        <v>44032.355821759258</v>
-      </c>
-      <c r="D19">
-        <v>10</v>
+        <v>44055.434490740743</v>
+      </c>
+      <c r="D19" s="2">
+        <v>44061</v>
       </c>
       <c r="G19" t="s">
         <v>17</v>
@@ -1844,10 +1845,10 @@
         <v>66</v>
       </c>
       <c r="C20" s="1">
-        <v>44032.355787037035</v>
-      </c>
-      <c r="D20">
-        <v>10</v>
+        <v>44055.434583333335</v>
+      </c>
+      <c r="D20" s="2">
+        <v>44076</v>
       </c>
       <c r="G20" t="s">
         <v>17</v>
@@ -1861,10 +1862,10 @@
         <v>68</v>
       </c>
       <c r="C21" s="1">
-        <v>44032.355752314812</v>
-      </c>
-      <c r="D21">
-        <v>10</v>
+        <v>44055.434629629628</v>
+      </c>
+      <c r="D21" s="2">
+        <v>44079</v>
       </c>
       <c r="F21" t="s">
         <v>69</v>
@@ -1884,10 +1885,10 @@
         <v>72</v>
       </c>
       <c r="C22" s="1">
-        <v>44032.355706018519</v>
-      </c>
-      <c r="D22">
-        <v>10</v>
+        <v>44055.434664351851</v>
+      </c>
+      <c r="D22" s="2">
+        <v>44078</v>
       </c>
       <c r="F22" t="s">
         <v>73</v>
@@ -1907,10 +1908,10 @@
         <v>76</v>
       </c>
       <c r="C23" s="1">
-        <v>44029.634293981479</v>
-      </c>
-      <c r="D23">
-        <v>10</v>
+        <v>44055.434710648151</v>
+      </c>
+      <c r="D23" s="2">
+        <v>44058</v>
       </c>
       <c r="E23" t="s">
         <v>77</v>
@@ -1930,10 +1931,10 @@
         <v>80</v>
       </c>
       <c r="C24" s="1">
-        <v>44029.634293981479</v>
-      </c>
-      <c r="D24">
-        <v>10</v>
+        <v>44055.434791666667</v>
+      </c>
+      <c r="D24" s="2">
+        <v>44057</v>
       </c>
       <c r="E24" t="s">
         <v>81</v>
@@ -1953,10 +1954,10 @@
         <v>84</v>
       </c>
       <c r="C25" s="1">
-        <v>44029.634282407409</v>
-      </c>
-      <c r="D25">
-        <v>10</v>
+        <v>44055.434872685182</v>
+      </c>
+      <c r="D25" s="2">
+        <v>44058</v>
       </c>
       <c r="F25" t="s">
         <v>85</v>
@@ -1973,10 +1974,10 @@
         <v>87</v>
       </c>
       <c r="C26" s="1">
-        <v>44029.634282407409</v>
-      </c>
-      <c r="D26">
-        <v>10</v>
+        <v>44055.434930555559</v>
+      </c>
+      <c r="D26" s="2">
+        <v>44057</v>
       </c>
       <c r="F26" t="s">
         <v>88</v>
@@ -1993,10 +1994,10 @@
         <v>90</v>
       </c>
       <c r="C27" s="1">
-        <v>44029.634282407409</v>
-      </c>
-      <c r="D27">
-        <v>10</v>
+        <v>44055.434965277775</v>
+      </c>
+      <c r="D27" s="2">
+        <v>44061</v>
       </c>
       <c r="F27" t="s">
         <v>91</v>
@@ -2013,10 +2014,10 @@
         <v>94</v>
       </c>
       <c r="C28" s="1">
-        <v>44029.634282407409</v>
-      </c>
-      <c r="D28">
-        <v>10</v>
+        <v>44055.434988425928</v>
+      </c>
+      <c r="D28" s="2">
+        <v>44076</v>
       </c>
       <c r="F28" t="s">
         <v>95</v>
@@ -2033,10 +2034,10 @@
         <v>97</v>
       </c>
       <c r="C29" s="1">
-        <v>44029.634282407409</v>
-      </c>
-      <c r="D29">
-        <v>10</v>
+        <v>44055.435069444444</v>
+      </c>
+      <c r="D29" s="2">
+        <v>44059</v>
       </c>
       <c r="F29" t="s">
         <v>98</v>
@@ -2053,10 +2054,10 @@
         <v>100</v>
       </c>
       <c r="C30" s="1">
-        <v>44029.634282407409</v>
-      </c>
-      <c r="D30">
-        <v>10</v>
+        <v>44055.435115740744</v>
+      </c>
+      <c r="D30" s="2">
+        <v>44058</v>
       </c>
       <c r="F30" t="s">
         <v>101</v>
@@ -2073,10 +2074,10 @@
         <v>103</v>
       </c>
       <c r="C31" s="1">
-        <v>44029.634282407409</v>
-      </c>
-      <c r="D31">
-        <v>10</v>
+        <v>44055.435219907406</v>
+      </c>
+      <c r="D31" s="2">
+        <v>44058</v>
       </c>
       <c r="F31" t="s">
         <v>104</v>
@@ -2093,10 +2094,10 @@
         <v>106</v>
       </c>
       <c r="C32" s="1">
-        <v>44029.634282407409</v>
-      </c>
-      <c r="D32">
-        <v>10</v>
+        <v>44055.435289351852</v>
+      </c>
+      <c r="D32" s="2">
+        <v>44069</v>
       </c>
       <c r="F32" t="s">
         <v>107</v>
@@ -2113,10 +2114,10 @@
         <v>109</v>
       </c>
       <c r="C33" s="1">
-        <v>44029.634282407409</v>
-      </c>
-      <c r="D33">
-        <v>10</v>
+        <v>44055.435324074075</v>
+      </c>
+      <c r="D33" s="2">
+        <v>44060</v>
       </c>
       <c r="F33" t="s">
         <v>110</v>
@@ -2133,10 +2134,10 @@
         <v>112</v>
       </c>
       <c r="C34" s="1">
-        <v>44029.634282407409</v>
-      </c>
-      <c r="D34">
-        <v>10</v>
+        <v>44055.435393518521</v>
+      </c>
+      <c r="D34" s="2">
+        <v>44079</v>
       </c>
       <c r="F34" t="s">
         <v>113</v>
@@ -2153,10 +2154,10 @@
         <v>115</v>
       </c>
       <c r="C35" s="1">
-        <v>44029.634282407409</v>
-      </c>
-      <c r="D35">
-        <v>10</v>
+        <v>44055.43545138889</v>
+      </c>
+      <c r="D35" s="2">
+        <v>44059</v>
       </c>
       <c r="F35" t="s">
         <v>116</v>
@@ -2173,10 +2174,10 @@
         <v>58</v>
       </c>
       <c r="C36" s="1">
-        <v>44048.389201388891</v>
-      </c>
-      <c r="D36">
-        <v>2</v>
+        <v>44055.435520833336</v>
+      </c>
+      <c r="D36" s="2">
+        <v>44056</v>
       </c>
       <c r="F36" t="s">
         <v>118</v>
@@ -2193,10 +2194,10 @@
         <v>120</v>
       </c>
       <c r="C37" s="1">
-        <v>44048.389293981483</v>
-      </c>
-      <c r="D37">
-        <v>4</v>
+        <v>44055.435578703706</v>
+      </c>
+      <c r="D37" s="2">
+        <v>44077</v>
       </c>
       <c r="F37" t="s">
         <v>121</v>
@@ -2213,10 +2214,10 @@
         <v>123</v>
       </c>
       <c r="C38" s="1">
-        <v>44029.634282407409</v>
-      </c>
-      <c r="D38">
-        <v>10</v>
+        <v>44055.435624999998</v>
+      </c>
+      <c r="D38" s="2">
+        <v>44057</v>
       </c>
       <c r="F38" t="s">
         <v>124</v>
@@ -2233,10 +2234,10 @@
         <v>126</v>
       </c>
       <c r="C39" s="1">
-        <v>44029.634282407409</v>
-      </c>
-      <c r="D39">
-        <v>10</v>
+        <v>44055.435659722221</v>
+      </c>
+      <c r="D39" s="2">
+        <v>44061</v>
       </c>
       <c r="F39" t="s">
         <v>127</v>
@@ -2253,10 +2254,10 @@
         <v>129</v>
       </c>
       <c r="C40" s="1">
-        <v>44029.634282407409</v>
-      </c>
-      <c r="D40">
-        <v>10</v>
+        <v>44055.435717592591</v>
+      </c>
+      <c r="D40" s="2">
+        <v>44056</v>
       </c>
       <c r="F40" t="s">
         <v>130</v>
@@ -2273,10 +2274,10 @@
         <v>132</v>
       </c>
       <c r="C41" s="1">
-        <v>44048.389374999999</v>
-      </c>
-      <c r="D41">
-        <v>4</v>
+        <v>44055.435740740744</v>
+      </c>
+      <c r="D41" s="2">
+        <v>44072</v>
       </c>
       <c r="F41" t="s">
         <v>133</v>
@@ -2293,10 +2294,10 @@
         <v>135</v>
       </c>
       <c r="C42" s="1">
-        <v>44029.634282407409</v>
-      </c>
-      <c r="D42">
-        <v>10</v>
+        <v>44055.43582175926</v>
+      </c>
+      <c r="D42" s="2">
+        <v>44079</v>
       </c>
       <c r="F42" t="s">
         <v>136</v>
@@ -2313,10 +2314,10 @@
         <v>138</v>
       </c>
       <c r="C43" s="1">
-        <v>44029.634282407409</v>
-      </c>
-      <c r="D43">
-        <v>10</v>
+        <v>44055.458402777775</v>
+      </c>
+      <c r="D43" s="2">
+        <v>44079</v>
       </c>
       <c r="F43" t="s">
         <v>139</v>
@@ -2333,10 +2334,10 @@
         <v>141</v>
       </c>
       <c r="C44" s="1">
-        <v>44044.486724537041</v>
-      </c>
-      <c r="D44">
-        <v>7</v>
+        <v>44055.459629629629</v>
+      </c>
+      <c r="D44" s="2">
+        <v>44058</v>
       </c>
       <c r="E44" t="s">
         <v>142</v>
@@ -2356,10 +2357,10 @@
         <v>145</v>
       </c>
       <c r="C45" s="1">
-        <v>44029.634282407409</v>
-      </c>
-      <c r="D45">
-        <v>10</v>
+        <v>44055.459664351853</v>
+      </c>
+      <c r="D45" s="2">
+        <v>44057</v>
       </c>
       <c r="F45" t="s">
         <v>146</v>
@@ -2376,10 +2377,10 @@
         <v>148</v>
       </c>
       <c r="C46" s="1">
-        <v>44048.389456018522</v>
-      </c>
-      <c r="D46">
-        <v>7</v>
+        <v>44055.459664351853</v>
+      </c>
+      <c r="D46" s="2">
+        <v>44060</v>
       </c>
       <c r="E46" t="s">
         <v>149</v>
@@ -2402,10 +2403,10 @@
         <v>153</v>
       </c>
       <c r="C47" s="1">
-        <v>44048.38962962963</v>
-      </c>
-      <c r="D47">
-        <v>7</v>
+        <v>44055.459675925929</v>
+      </c>
+      <c r="D47" s="2">
+        <v>44058</v>
       </c>
       <c r="F47" t="s">
         <v>154</v>
@@ -2425,10 +2426,10 @@
         <v>157</v>
       </c>
       <c r="C48" s="1">
-        <v>44048.389699074076</v>
-      </c>
-      <c r="D48">
-        <v>7</v>
+        <v>44055.459699074076</v>
+      </c>
+      <c r="D48" s="2">
+        <v>44065</v>
       </c>
       <c r="F48" t="s">
         <v>158</v>
@@ -2448,10 +2449,10 @@
         <v>161</v>
       </c>
       <c r="C49" s="1">
-        <v>44032.45385416667</v>
-      </c>
-      <c r="D49">
-        <v>4</v>
+        <v>44055.459745370368</v>
+      </c>
+      <c r="D49" s="2">
+        <v>44056</v>
       </c>
       <c r="G49" t="s">
         <v>41</v>
@@ -2468,10 +2469,10 @@
         <v>164</v>
       </c>
       <c r="C50" s="1">
-        <v>44032.45380787037</v>
-      </c>
-      <c r="D50">
-        <v>10</v>
+        <v>44055.45994212963</v>
+      </c>
+      <c r="D50" s="2">
+        <v>44061</v>
       </c>
       <c r="E50" t="s">
         <v>165</v>
@@ -2491,10 +2492,10 @@
         <v>168</v>
       </c>
       <c r="C51" s="1">
-        <v>44048.389710648145</v>
-      </c>
-      <c r="D51">
-        <v>4</v>
+        <v>44055.459988425922</v>
+      </c>
+      <c r="D51" s="2">
+        <v>44059</v>
       </c>
       <c r="E51" t="s">
         <v>169</v>
@@ -2514,10 +2515,10 @@
         <v>172</v>
       </c>
       <c r="C52" s="1">
-        <v>44032.453645833331</v>
-      </c>
-      <c r="D52">
-        <v>10</v>
+        <v>44055.460023148145</v>
+      </c>
+      <c r="D52" s="2">
+        <v>44078</v>
       </c>
       <c r="G52" t="s">
         <v>41</v>
@@ -2531,10 +2532,10 @@
         <v>174</v>
       </c>
       <c r="C53" s="1">
-        <v>44032.453587962962</v>
-      </c>
-      <c r="D53">
-        <v>5</v>
+        <v>44055.460092592592</v>
+      </c>
+      <c r="D53" s="2">
+        <v>44076</v>
       </c>
       <c r="G53" t="s">
         <v>17</v>
@@ -2551,10 +2552,10 @@
         <v>177</v>
       </c>
       <c r="C54" s="1">
-        <v>44032.453217592592</v>
-      </c>
-      <c r="D54">
-        <v>1</v>
+        <v>44055.460196759261</v>
+      </c>
+      <c r="D54" s="2">
+        <v>44076</v>
       </c>
       <c r="E54" t="s">
         <v>178</v>
@@ -2574,10 +2575,10 @@
         <v>181</v>
       </c>
       <c r="C55" s="1">
-        <v>44032.453217592592</v>
-      </c>
-      <c r="D55">
-        <v>5</v>
+        <v>44055.460243055553</v>
+      </c>
+      <c r="D55" s="2">
+        <v>44078</v>
       </c>
       <c r="G55" t="s">
         <v>41</v>
@@ -2594,10 +2595,10 @@
         <v>184</v>
       </c>
       <c r="C56" s="1">
-        <v>44032.453067129631</v>
-      </c>
-      <c r="D56">
-        <v>2</v>
+        <v>44055.460277777776</v>
+      </c>
+      <c r="D56" s="2">
+        <v>44076</v>
       </c>
       <c r="F56" t="s">
         <v>185</v>
@@ -2614,10 +2615,10 @@
         <v>187</v>
       </c>
       <c r="C57" s="1">
-        <v>44029.634282407409</v>
-      </c>
-      <c r="D57">
-        <v>1</v>
+        <v>44055.460358796299</v>
+      </c>
+      <c r="D57" s="2">
+        <v>44069</v>
       </c>
       <c r="F57" t="s">
         <v>188</v>
@@ -2637,10 +2638,10 @@
         <v>191</v>
       </c>
       <c r="C58" s="1">
-        <v>44029.634282407409</v>
-      </c>
-      <c r="D58">
-        <v>1</v>
+        <v>44055.460393518515</v>
+      </c>
+      <c r="D58" s="2">
+        <v>44061</v>
       </c>
       <c r="F58" t="s">
         <v>192</v>
@@ -2660,10 +2661,10 @@
         <v>195</v>
       </c>
       <c r="C59" s="1">
-        <v>44029.634282407409</v>
-      </c>
-      <c r="D59">
-        <v>1</v>
+        <v>44055.460486111115</v>
+      </c>
+      <c r="D59" s="2">
+        <v>44061</v>
       </c>
       <c r="G59" t="s">
         <v>41</v>
@@ -2680,10 +2681,10 @@
         <v>198</v>
       </c>
       <c r="C60" s="1">
-        <v>44029.634282407409</v>
-      </c>
-      <c r="D60">
-        <v>1</v>
+        <v>44055.460555555554</v>
+      </c>
+      <c r="D60" s="2">
+        <v>44071</v>
       </c>
       <c r="F60" t="s">
         <v>199</v>
@@ -2703,10 +2704,10 @@
         <v>202</v>
       </c>
       <c r="C61" s="1">
-        <v>44032.888136574074</v>
-      </c>
-      <c r="D61">
-        <v>1</v>
+        <v>44055.460601851853</v>
+      </c>
+      <c r="D61" s="2">
+        <v>44058</v>
       </c>
       <c r="F61" t="s">
         <v>203</v>
@@ -2726,10 +2727,10 @@
         <v>206</v>
       </c>
       <c r="C62" s="1">
-        <v>44032.888148148151</v>
-      </c>
-      <c r="D62">
-        <v>1</v>
+        <v>44055.460636574076</v>
+      </c>
+      <c r="D62" s="2">
+        <v>44056</v>
       </c>
       <c r="F62" t="s">
         <v>207</v>
@@ -2749,10 +2750,10 @@
         <v>210</v>
       </c>
       <c r="C63" s="1">
-        <v>44032.88853009259</v>
-      </c>
-      <c r="D63">
-        <v>1</v>
+        <v>44055.460694444446</v>
+      </c>
+      <c r="D63" s="2">
+        <v>44068</v>
       </c>
       <c r="F63" t="s">
         <v>211</v>
@@ -2772,10 +2773,10 @@
         <v>214</v>
       </c>
       <c r="C64" s="1">
-        <v>44032.888541666667</v>
-      </c>
-      <c r="D64">
-        <v>1</v>
+        <v>44055.460763888892</v>
+      </c>
+      <c r="D64" s="2">
+        <v>44058</v>
       </c>
       <c r="F64" t="s">
         <v>215</v>
@@ -2795,10 +2796,10 @@
         <v>218</v>
       </c>
       <c r="C65" s="1">
-        <v>44032.888668981483</v>
-      </c>
-      <c r="D65">
-        <v>1</v>
+        <v>44055.460833333331</v>
+      </c>
+      <c r="D65" s="2">
+        <v>44079</v>
       </c>
       <c r="F65" t="s">
         <v>219</v>
@@ -2818,10 +2819,10 @@
         <v>222</v>
       </c>
       <c r="C66" s="1">
-        <v>44032.888703703706</v>
-      </c>
-      <c r="D66">
-        <v>1</v>
+        <v>44055.4608912037</v>
+      </c>
+      <c r="D66" s="2">
+        <v>44078</v>
       </c>
       <c r="G66" t="s">
         <v>41</v>
@@ -2838,10 +2839,10 @@
         <v>225</v>
       </c>
       <c r="C67" s="1">
-        <v>44032.888738425929</v>
-      </c>
-      <c r="D67">
-        <v>1</v>
+        <v>44055.460925925923</v>
+      </c>
+      <c r="D67" s="2">
+        <v>44060</v>
       </c>
       <c r="F67" t="s">
         <v>226</v>
@@ -2861,10 +2862,10 @@
         <v>229</v>
       </c>
       <c r="C68" s="1">
-        <v>44032.888831018521</v>
-      </c>
-      <c r="D68">
-        <v>1</v>
+        <v>44055.461006944446</v>
+      </c>
+      <c r="D68" s="2">
+        <v>44079</v>
       </c>
       <c r="F68" t="s">
         <v>230</v>
@@ -2884,10 +2885,10 @@
         <v>233</v>
       </c>
       <c r="C69" s="1">
-        <v>44032.888958333337</v>
-      </c>
-      <c r="D69">
-        <v>1</v>
+        <v>44055.461064814815</v>
+      </c>
+      <c r="D69" s="2">
+        <v>44077</v>
       </c>
       <c r="F69" t="s">
         <v>234</v>
@@ -2904,10 +2905,10 @@
         <v>236</v>
       </c>
       <c r="C70" s="1">
-        <v>44032.889004629629</v>
-      </c>
-      <c r="D70">
-        <v>1</v>
+        <v>44055.461111111108</v>
+      </c>
+      <c r="D70" s="2">
+        <v>44057</v>
       </c>
       <c r="F70" t="s">
         <v>237</v>
@@ -2924,10 +2925,10 @@
         <v>239</v>
       </c>
       <c r="C71" s="1">
-        <v>44032.889016203706</v>
-      </c>
-      <c r="D71">
-        <v>1</v>
+        <v>44055.461134259262</v>
+      </c>
+      <c r="D71" s="2">
+        <v>44059</v>
       </c>
       <c r="F71" t="s">
         <v>240</v>
@@ -2944,10 +2945,10 @@
         <v>242</v>
       </c>
       <c r="C72" s="1">
-        <v>44032.889085648145</v>
-      </c>
-      <c r="D72">
-        <v>1</v>
+        <v>44055.461180555554</v>
+      </c>
+      <c r="D72" s="2">
+        <v>44061</v>
       </c>
       <c r="F72" t="s">
         <v>243</v>
@@ -2964,10 +2965,10 @@
         <v>245</v>
       </c>
       <c r="C73" s="1">
-        <v>44032.890740740739</v>
-      </c>
-      <c r="D73">
-        <v>1</v>
+        <v>44055.461226851854</v>
+      </c>
+      <c r="D73" s="2">
+        <v>44076</v>
       </c>
       <c r="F73" t="s">
         <v>246</v>
@@ -2984,10 +2985,10 @@
         <v>248</v>
       </c>
       <c r="C74" s="1">
-        <v>44032.890775462962</v>
-      </c>
-      <c r="D74">
-        <v>1</v>
+        <v>44055.461284722223</v>
+      </c>
+      <c r="D74" s="2">
+        <v>44079</v>
       </c>
       <c r="F74" t="s">
         <v>249</v>
@@ -3004,10 +3005,10 @@
         <v>251</v>
       </c>
       <c r="C75" s="1">
-        <v>44032.890798611108</v>
-      </c>
-      <c r="D75">
-        <v>1</v>
+        <v>44055.46130787037</v>
+      </c>
+      <c r="D75" s="2">
+        <v>44076</v>
       </c>
       <c r="E75" t="s">
         <v>252</v>
@@ -3027,10 +3028,10 @@
         <v>255</v>
       </c>
       <c r="C76" s="1">
-        <v>44032.890868055554</v>
-      </c>
-      <c r="D76">
-        <v>1</v>
+        <v>44055.461342592593</v>
+      </c>
+      <c r="D76" s="2">
+        <v>44064</v>
       </c>
       <c r="F76" t="s">
         <v>256</v>
@@ -3047,10 +3048,10 @@
         <v>258</v>
       </c>
       <c r="C77" s="1">
-        <v>44032.890972222223</v>
-      </c>
-      <c r="D77">
-        <v>1</v>
+        <v>44055.461400462962</v>
+      </c>
+      <c r="D77" s="2">
+        <v>44060</v>
       </c>
       <c r="F77" t="s">
         <v>259</v>
@@ -3067,10 +3068,10 @@
         <v>261</v>
       </c>
       <c r="C78" s="1">
-        <v>44032.891018518516</v>
-      </c>
-      <c r="D78">
-        <v>1</v>
+        <v>44055.461435185185</v>
+      </c>
+      <c r="D78" s="2">
+        <v>44065</v>
       </c>
       <c r="F78" t="s">
         <v>262</v>
@@ -3087,10 +3088,10 @@
         <v>264</v>
       </c>
       <c r="C79" s="1">
-        <v>44032.891053240739</v>
-      </c>
-      <c r="D79">
-        <v>1</v>
+        <v>44055.461458333331</v>
+      </c>
+      <c r="D79" s="2">
+        <v>44063</v>
       </c>
       <c r="F79" t="s">
         <v>265</v>
@@ -3107,10 +3108,10 @@
         <v>267</v>
       </c>
       <c r="C80" s="1">
-        <v>44032.891076388885</v>
-      </c>
-      <c r="D80">
-        <v>1</v>
+        <v>44055.461481481485</v>
+      </c>
+      <c r="D80" s="2">
+        <v>44061</v>
       </c>
       <c r="F80" t="s">
         <v>268</v>
@@ -3127,10 +3128,10 @@
         <v>270</v>
       </c>
       <c r="C81" s="1">
-        <v>44032.891134259262</v>
-      </c>
-      <c r="D81">
-        <v>1</v>
+        <v>44055.461504629631</v>
+      </c>
+      <c r="D81" s="2">
+        <v>44060</v>
       </c>
       <c r="F81" t="s">
         <v>271</v>
@@ -3147,10 +3148,10 @@
         <v>273</v>
       </c>
       <c r="C82" s="1">
-        <v>44032.891180555554</v>
-      </c>
-      <c r="D82">
-        <v>1</v>
+        <v>44055.461527777778</v>
+      </c>
+      <c r="D82" s="2">
+        <v>44058</v>
       </c>
       <c r="E82" t="s">
         <v>274</v>
@@ -3170,10 +3171,10 @@
         <v>277</v>
       </c>
       <c r="C83" s="1">
-        <v>44032.891238425924</v>
-      </c>
-      <c r="D83">
-        <v>1</v>
+        <v>44055.461550925924</v>
+      </c>
+      <c r="D83" s="2">
+        <v>44059</v>
       </c>
       <c r="E83" t="s">
         <v>278</v>
@@ -3193,10 +3194,10 @@
         <v>281</v>
       </c>
       <c r="C84" s="1">
-        <v>44032.891701388886</v>
-      </c>
-      <c r="D84">
-        <v>4</v>
+        <v>44055.461574074077</v>
+      </c>
+      <c r="D84" s="2">
+        <v>44056</v>
       </c>
       <c r="F84" t="s">
         <v>282</v>
@@ -3213,10 +3214,10 @@
         <v>284</v>
       </c>
       <c r="C85" s="1">
-        <v>44033.356157407405</v>
-      </c>
-      <c r="D85">
-        <v>2</v>
+        <v>44055.46162037037</v>
+      </c>
+      <c r="D85" s="2">
+        <v>44056</v>
       </c>
       <c r="G85" t="s">
         <v>12</v>
@@ -3233,10 +3234,10 @@
         <v>287</v>
       </c>
       <c r="C86" s="1">
-        <v>44033.3515162037</v>
-      </c>
-      <c r="D86">
-        <v>2</v>
+        <v>44055.461678240739</v>
+      </c>
+      <c r="D86" s="2">
+        <v>44058</v>
       </c>
       <c r="G86" t="s">
         <v>41</v>
@@ -3250,10 +3251,10 @@
         <v>289</v>
       </c>
       <c r="C87" s="1">
-        <v>44033.351574074077</v>
-      </c>
-      <c r="D87">
-        <v>4</v>
+        <v>44055.461747685185</v>
+      </c>
+      <c r="D87" s="2">
+        <v>44058</v>
       </c>
       <c r="G87" t="s">
         <v>12</v>
@@ -3270,10 +3271,10 @@
         <v>292</v>
       </c>
       <c r="C88" s="1">
-        <v>44033.351678240739</v>
-      </c>
-      <c r="D88">
-        <v>10</v>
+        <v>44055.461793981478</v>
+      </c>
+      <c r="D88" s="2">
+        <v>44068</v>
       </c>
       <c r="G88" t="s">
         <v>17</v>
@@ -3287,10 +3288,10 @@
         <v>294</v>
       </c>
       <c r="C89" s="1">
-        <v>44033.351736111108</v>
-      </c>
-      <c r="D89">
-        <v>7</v>
+        <v>44055.461828703701</v>
+      </c>
+      <c r="D89" s="2">
+        <v>44056</v>
       </c>
       <c r="G89" t="s">
         <v>41</v>
@@ -3304,10 +3305,10 @@
         <v>296</v>
       </c>
       <c r="C90" s="1">
-        <v>44033.351736111108</v>
-      </c>
-      <c r="D90">
-        <v>1</v>
+        <v>44055.461863425924</v>
+      </c>
+      <c r="D90" s="2">
+        <v>44058</v>
       </c>
       <c r="G90" t="s">
         <v>12</v>
@@ -3321,10 +3322,10 @@
         <v>298</v>
       </c>
       <c r="C91" s="1">
-        <v>44033.351782407408</v>
-      </c>
-      <c r="D91">
-        <v>1</v>
+        <v>44055.461898148147</v>
+      </c>
+      <c r="D91" s="2">
+        <v>44060</v>
       </c>
       <c r="G91" t="s">
         <v>17</v>
@@ -3338,10 +3339,10 @@
         <v>300</v>
       </c>
       <c r="C92" s="1">
-        <v>44033.351793981485</v>
-      </c>
-      <c r="D92">
-        <v>1</v>
+        <v>44055.462002314816</v>
+      </c>
+      <c r="D92" s="2">
+        <v>44059</v>
       </c>
       <c r="G92" t="s">
         <v>41</v>
@@ -3355,10 +3356,10 @@
         <v>302</v>
       </c>
       <c r="C93" s="1">
-        <v>44033.351817129631</v>
-      </c>
-      <c r="D93">
-        <v>1</v>
+        <v>44055.462060185186</v>
+      </c>
+      <c r="D93" s="2">
+        <v>44061</v>
       </c>
       <c r="G93" t="s">
         <v>41</v>
@@ -3372,10 +3373,10 @@
         <v>304</v>
       </c>
       <c r="C94" s="1">
-        <v>44033.3518287037</v>
-      </c>
-      <c r="D94">
-        <v>1</v>
+        <v>44055.462094907409</v>
+      </c>
+      <c r="D94" s="2">
+        <v>44058</v>
       </c>
       <c r="G94" t="s">
         <v>41</v>
@@ -3389,10 +3390,10 @@
         <v>306</v>
       </c>
       <c r="C95" s="1">
-        <v>44033.352083333331</v>
-      </c>
-      <c r="D95">
-        <v>2</v>
+        <v>44055.462141203701</v>
+      </c>
+      <c r="D95" s="2">
+        <v>44061</v>
       </c>
       <c r="G95" t="s">
         <v>17</v>
@@ -3406,10 +3407,10 @@
         <v>308</v>
       </c>
       <c r="C96" s="1">
-        <v>44033.352187500001</v>
-      </c>
-      <c r="D96">
-        <v>4</v>
+        <v>44055.462175925924</v>
+      </c>
+      <c r="D96" s="2">
+        <v>44064</v>
       </c>
       <c r="G96" t="s">
         <v>41</v>
@@ -3423,10 +3424,10 @@
         <v>310</v>
       </c>
       <c r="C97" s="1">
-        <v>44033.352199074077</v>
-      </c>
-      <c r="D97">
-        <v>1</v>
+        <v>44055.462210648147</v>
+      </c>
+      <c r="D97" s="2">
+        <v>44059</v>
       </c>
       <c r="G97" t="s">
         <v>12</v>
@@ -3440,10 +3441,10 @@
         <v>312</v>
       </c>
       <c r="C98" s="1">
-        <v>44033.352210648147</v>
-      </c>
-      <c r="D98">
-        <v>1</v>
+        <v>44055.462245370371</v>
+      </c>
+      <c r="D98" s="2">
+        <v>44063</v>
       </c>
       <c r="G98" t="s">
         <v>12</v>
@@ -3457,10 +3458,10 @@
         <v>314</v>
       </c>
       <c r="C99" s="1">
-        <v>44033.35229166667</v>
-      </c>
-      <c r="D99">
-        <v>7</v>
+        <v>44055.462314814817</v>
+      </c>
+      <c r="D99" s="2">
+        <v>44058</v>
       </c>
       <c r="G99" t="s">
         <v>41</v>
@@ -3474,10 +3475,10 @@
         <v>316</v>
       </c>
       <c r="C100" s="1">
-        <v>44033.35229166667</v>
-      </c>
-      <c r="D100">
-        <v>1</v>
+        <v>44055.46234953704</v>
+      </c>
+      <c r="D100" s="2">
+        <v>44060</v>
       </c>
       <c r="G100" t="s">
         <v>41</v>
@@ -3491,10 +3492,10 @@
         <v>318</v>
       </c>
       <c r="C101" s="1">
-        <v>44033.352384259262</v>
-      </c>
-      <c r="D101">
-        <v>2</v>
+        <v>44055.462384259263</v>
+      </c>
+      <c r="D101" s="2">
+        <v>44061</v>
       </c>
       <c r="G101" t="s">
         <v>41</v>
@@ -3508,10 +3509,10 @@
         <v>320</v>
       </c>
       <c r="C102" s="1">
-        <v>44033.352430555555</v>
-      </c>
-      <c r="D102">
-        <v>7</v>
+        <v>44055.462418981479</v>
+      </c>
+      <c r="D102" s="2">
+        <v>44059</v>
       </c>
       <c r="G102" t="s">
         <v>41</v>
@@ -3525,10 +3526,10 @@
         <v>322</v>
       </c>
       <c r="C103" s="1">
-        <v>44033.352430555555</v>
-      </c>
-      <c r="D103">
-        <v>1</v>
+        <v>44055.462488425925</v>
+      </c>
+      <c r="D103" s="2">
+        <v>44065</v>
       </c>
       <c r="G103" t="s">
         <v>12</v>
@@ -3542,10 +3543,10 @@
         <v>324</v>
       </c>
       <c r="C104" s="1">
-        <v>44033.361875000002</v>
-      </c>
-      <c r="D104">
-        <v>2</v>
+        <v>44055.462523148148</v>
+      </c>
+      <c r="D104" s="2">
+        <v>44059</v>
       </c>
       <c r="G104" t="s">
         <v>41</v>
@@ -3559,10 +3560,10 @@
         <v>326</v>
       </c>
       <c r="C105" s="1">
-        <v>44033.361909722225</v>
-      </c>
-      <c r="D105">
-        <v>2</v>
+        <v>44055.462557870371</v>
+      </c>
+      <c r="D105" s="2">
+        <v>44058</v>
       </c>
       <c r="G105" t="s">
         <v>41</v>
@@ -3576,10 +3577,10 @@
         <v>328</v>
       </c>
       <c r="C106" s="1">
-        <v>44033.363645833335</v>
-      </c>
-      <c r="D106">
-        <v>1</v>
+        <v>44055.462581018517</v>
+      </c>
+      <c r="D106" s="2">
+        <v>44060</v>
       </c>
       <c r="E106" t="s">
         <v>329</v>
@@ -3596,10 +3597,10 @@
         <v>331</v>
       </c>
       <c r="C107" s="1">
-        <v>44033.363668981481</v>
-      </c>
-      <c r="D107">
-        <v>1</v>
+        <v>44055.462604166663</v>
+      </c>
+      <c r="D107" s="2">
+        <v>44065</v>
       </c>
       <c r="G107" t="s">
         <v>41</v>
@@ -3613,10 +3614,10 @@
         <v>333</v>
       </c>
       <c r="C108" s="1">
-        <v>44033.362372685187</v>
-      </c>
-      <c r="D108">
-        <v>1</v>
+        <v>44055.462638888886</v>
+      </c>
+      <c r="D108" s="2">
+        <v>44062</v>
       </c>
       <c r="G108" t="s">
         <v>41</v>
@@ -3630,10 +3631,10 @@
         <v>335</v>
       </c>
       <c r="C109" s="1">
-        <v>44033.362476851849</v>
-      </c>
-      <c r="D109">
-        <v>1</v>
+        <v>44055.462673611109</v>
+      </c>
+      <c r="D109" s="2">
+        <v>44067</v>
       </c>
       <c r="G109" t="s">
         <v>41</v>
@@ -3647,10 +3648,10 @@
         <v>337</v>
       </c>
       <c r="C110" s="1">
-        <v>44033.363680555558</v>
-      </c>
-      <c r="D110">
-        <v>1</v>
+        <v>44055.462708333333</v>
+      </c>
+      <c r="D110" s="2">
+        <v>44072</v>
       </c>
       <c r="G110" t="s">
         <v>41</v>
@@ -3664,10 +3665,10 @@
         <v>339</v>
       </c>
       <c r="C111" s="1">
-        <v>44033.362708333334</v>
-      </c>
-      <c r="D111">
-        <v>7</v>
+        <v>44055.462743055556</v>
+      </c>
+      <c r="D111" s="2">
+        <v>44071</v>
       </c>
       <c r="G111" t="s">
         <v>41</v>
@@ -3681,10 +3682,10 @@
         <v>341</v>
       </c>
       <c r="C112" s="1">
-        <v>44033.362743055557</v>
-      </c>
-      <c r="D112">
-        <v>7</v>
+        <v>44055.462766203702</v>
+      </c>
+      <c r="D112" s="2">
+        <v>44078</v>
       </c>
       <c r="G112" t="s">
         <v>41</v>
@@ -3698,10 +3699,10 @@
         <v>343</v>
       </c>
       <c r="C113" s="1">
-        <v>44033.362754629627</v>
-      </c>
-      <c r="D113">
-        <v>4</v>
+        <v>44055.462800925925</v>
+      </c>
+      <c r="D113" s="2">
+        <v>44077</v>
       </c>
       <c r="G113" t="s">
         <v>41</v>
@@ -3715,10 +3716,10 @@
         <v>345</v>
       </c>
       <c r="C114" s="1">
-        <v>44033.36277777778</v>
-      </c>
-      <c r="D114">
-        <v>2</v>
+        <v>44055.462824074071</v>
+      </c>
+      <c r="D114" s="2">
+        <v>44074</v>
       </c>
       <c r="G114" t="s">
         <v>41</v>
@@ -3732,10 +3733,10 @@
         <v>347</v>
       </c>
       <c r="C115" s="1">
-        <v>44033.363738425927</v>
-      </c>
-      <c r="D115">
-        <v>1</v>
+        <v>44055.462893518517</v>
+      </c>
+      <c r="D115" s="2">
+        <v>44057</v>
       </c>
       <c r="E115" t="s">
         <v>348</v>
@@ -3752,10 +3753,10 @@
         <v>350</v>
       </c>
       <c r="C116" s="1">
-        <v>44033.363240740742</v>
-      </c>
-      <c r="D116">
-        <v>7</v>
+        <v>44055.462939814817</v>
+      </c>
+      <c r="D116" s="2">
+        <v>44078</v>
       </c>
       <c r="G116" t="s">
         <v>41</v>
@@ -3769,10 +3770,10 @@
         <v>352</v>
       </c>
       <c r="C117" s="1">
-        <v>44033.363275462965</v>
-      </c>
-      <c r="D117">
-        <v>10</v>
+        <v>44055.462962962964</v>
+      </c>
+      <c r="D117" s="2">
+        <v>44073</v>
       </c>
       <c r="G117" t="s">
         <v>41</v>
@@ -3786,10 +3787,10 @@
         <v>354</v>
       </c>
       <c r="C118" s="1">
-        <v>44033.363726851851</v>
-      </c>
-      <c r="D118">
-        <v>1</v>
+        <v>44055.463437500002</v>
+      </c>
+      <c r="D118" s="2">
+        <v>44056</v>
       </c>
       <c r="G118" t="s">
         <v>12</v>
@@ -3803,10 +3804,10 @@
         <v>356</v>
       </c>
       <c r="C119" s="1">
-        <v>44033.363726851851</v>
-      </c>
-      <c r="D119">
-        <v>1</v>
+        <v>44055.463472222225</v>
+      </c>
+      <c r="D119" s="2">
+        <v>44056</v>
       </c>
       <c r="G119" t="s">
         <v>41</v>
@@ -3820,10 +3821,10 @@
         <v>358</v>
       </c>
       <c r="C120" s="1">
-        <v>44033.363344907404</v>
-      </c>
-      <c r="D120">
-        <v>1</v>
+        <v>44055.463483796295</v>
+      </c>
+      <c r="D120" s="2">
+        <v>44056</v>
       </c>
       <c r="E120" t="s">
         <v>359</v>
@@ -3840,10 +3841,10 @@
         <v>361</v>
       </c>
       <c r="C121" s="1">
-        <v>44033.363622685189</v>
-      </c>
-      <c r="D121">
-        <v>4</v>
+        <v>44055.463483796295</v>
+      </c>
+      <c r="D121" s="2">
+        <v>44056</v>
       </c>
       <c r="G121" t="s">
         <v>41</v>
@@ -3857,10 +3858,10 @@
         <v>363</v>
       </c>
       <c r="C122" s="1">
-        <v>44033.363611111112</v>
-      </c>
-      <c r="D122">
-        <v>1</v>
+        <v>44055.463483796295</v>
+      </c>
+      <c r="D122" s="2">
+        <v>44056</v>
       </c>
       <c r="G122" t="s">
         <v>41</v>
@@ -3874,10 +3875,10 @@
         <v>365</v>
       </c>
       <c r="C123" s="1">
-        <v>44033.363715277781</v>
-      </c>
-      <c r="D123">
-        <v>4</v>
+        <v>44055.463483796295</v>
+      </c>
+      <c r="D123" s="2">
+        <v>44056</v>
       </c>
       <c r="G123" t="s">
         <v>41</v>
